--- a/artfynd/A 2467-2025 artfynd.xlsx
+++ b/artfynd/A 2467-2025 artfynd.xlsx
@@ -1207,7 +1207,7 @@
         <v>123361779</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>123361780</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         <v>123361783</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>123361778</v>
       </c>
       <c r="B14" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>123361782</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>123361781</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
